--- a/单值代码.xlsx
+++ b/单值代码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,22 @@
   </si>
   <si>
     <t>5：博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：审核不通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,10 +161,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,13 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -476,7 +495,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -484,7 +503,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -494,7 +513,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -502,13 +521,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -516,13 +535,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
@@ -530,35 +549,56 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单值代码.xlsx
+++ b/单值代码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>3：审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_yxzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：已下线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,8 +604,24 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>

--- a/单值代码.xlsx
+++ b/单值代码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,34 @@
   </si>
   <si>
     <t>2：已下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receivejianliinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:待处理简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：待定简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：已通知面试简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：不合适简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：通过面试的简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,14 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,7 +533,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -515,6 +544,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>6</v>
@@ -522,7 +552,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -533,12 +563,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -547,12 +579,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -561,30 +595,35 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -593,18 +632,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
@@ -612,15 +654,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>

--- a/单值代码.xlsx
+++ b/单值代码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：家长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_jobinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +141,234 @@
   </si>
   <si>
     <t>5：通过面试的简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：无效（拉黑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_userinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_jobinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_gzxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：全职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_gzjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_xlyq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：有经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：无经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：大专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_yxzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_jianliinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_xl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_gzjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_gzxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：招聘者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：应聘者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_shenhelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_shlx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:个人信息审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：职位发布审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_reportinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_jblx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：收取费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：发布虚假信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：不发放工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_cljg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：已恢复用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +386,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -198,11 +433,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,179 +782,566 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>32</v>
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="32">
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A33:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单值代码.xlsx
+++ b/单值代码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2：职位发布审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n_zt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,39 +332,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4：其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_cljg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：已恢复用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_cljg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:待处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：已拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：不拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:职位信息审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3：不发放工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4：其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_cljg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：不处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_blacklist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:已拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：已恢复用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,13 +453,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,10 +791,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -786,41 +802,41 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -828,15 +844,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -844,15 +860,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
@@ -860,36 +876,36 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
@@ -897,22 +913,22 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
@@ -920,18 +936,18 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -939,39 +955,39 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
@@ -979,25 +995,25 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
@@ -1005,15 +1021,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="s">
@@ -1021,22 +1037,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1044,36 +1060,36 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
@@ -1081,22 +1097,22 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C46" t="s">
@@ -1104,18 +1120,18 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C49" t="s">
@@ -1123,29 +1139,29 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
@@ -1153,15 +1169,15 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C55" t="s">
@@ -1169,22 +1185,22 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C58" t="s">
@@ -1192,18 +1208,18 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
@@ -1211,115 +1227,136 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="C63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" t="s">
         <v>77</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" t="s">
         <v>82</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" t="s">
+      <c r="B77" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
+      <c r="C77" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" t="s">
         <v>86</v>
       </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A61:A65"/>
+  <mergeCells count="33">
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B53:B54"/>
@@ -1336,12 +1373,15 @@
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A77:A78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
